--- a/data/Dolar_Blue.xlsx
+++ b/data/Dolar_Blue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e223505c9e30941/Documents/10. Taller de trabajo final integrador/0. Labs/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3e223505c9e30941/Documents/10. TFI/0. Labs/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:40019_{C5B0F510-2D67-4EA9-A099-A6399ACEABA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17094649-B6FD-4E66-8DA2-0D852E4729EE}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:40019_{C5B0F510-2D67-4EA9-A099-A6399ACEABA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAD9D746-E12A-4F3B-98FA-1303D5032E93}"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="12852" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dolar_Blue" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +66,13 @@
       <sz val="12"/>
       <color rgb="FF666666"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -103,10 +113,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -120,8 +131,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -437,15 +451,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="1">
         <v>44813</v>
       </c>
@@ -474,7 +488,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="3">
         <v>44812</v>
       </c>
@@ -489,7 +503,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:5" ht="15.75" thickBot="1">
       <c r="A4" s="1">
         <v>44811</v>
       </c>
@@ -504,7 +518,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
       <c r="A5" s="3">
         <v>44810</v>
       </c>
@@ -519,7 +533,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="1">
         <v>44809</v>
       </c>
@@ -534,7 +548,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
       <c r="A7" s="3">
         <v>44806</v>
       </c>
@@ -549,7 +563,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="1">
         <v>44805</v>
       </c>
@@ -564,7 +578,7 @@
         <v>282.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:5" ht="15.75" thickBot="1">
       <c r="A9" s="3">
         <v>44804</v>
       </c>
@@ -579,7 +593,7 @@
         <v>287.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="1">
         <v>44803</v>
       </c>
@@ -594,7 +608,7 @@
         <v>288.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:5" ht="15.75" thickBot="1">
       <c r="A11" s="3">
         <v>44802</v>
       </c>
@@ -609,7 +623,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:5" ht="15.75" thickBot="1">
       <c r="A12" s="1">
         <v>44799</v>
       </c>
@@ -624,7 +638,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1">
       <c r="A13" s="3">
         <v>44798</v>
       </c>
@@ -638,8 +652,12 @@
         <f t="shared" si="0"/>
         <v>290.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E13">
+        <f>+D13/D64</f>
+        <v>1.3966346153846154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1">
       <c r="A14" s="1">
         <v>44797</v>
       </c>
@@ -654,7 +672,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="3">
         <v>44796</v>
       </c>
@@ -669,7 +687,7 @@
         <v>294.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:5" ht="15.75" thickBot="1">
       <c r="A16" s="1">
         <v>44795</v>
       </c>
@@ -684,7 +702,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1">
       <c r="A17" s="3">
         <v>44792</v>
       </c>
@@ -699,7 +717,7 @@
         <v>292.5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1">
+    <row r="18" spans="1:6" ht="15.75" thickBot="1">
       <c r="A18" s="1">
         <v>44791</v>
       </c>
@@ -714,7 +732,7 @@
         <v>290.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+    <row r="19" spans="1:6" ht="15.75" thickBot="1">
       <c r="A19" s="3">
         <v>44790</v>
       </c>
@@ -729,7 +747,7 @@
         <v>289.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:6" ht="15.75" thickBot="1">
       <c r="A20" s="1">
         <v>44789</v>
       </c>
@@ -744,7 +762,7 @@
         <v>288.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1">
+    <row r="21" spans="1:6" ht="15.75" thickBot="1">
       <c r="A21" s="3">
         <v>44785</v>
       </c>
@@ -759,7 +777,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="A22" s="1">
         <v>44784</v>
       </c>
@@ -774,7 +792,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+    <row r="23" spans="1:6" ht="15.75" thickBot="1">
       <c r="A23" s="3">
         <v>44783</v>
       </c>
@@ -789,7 +807,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+    <row r="24" spans="1:6" ht="15.75" thickBot="1">
       <c r="A24" s="1">
         <v>44782</v>
       </c>
@@ -804,7 +822,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="3">
         <v>44781</v>
       </c>
@@ -819,7 +837,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+    <row r="26" spans="1:6" ht="15.75" thickBot="1">
       <c r="A26" s="1">
         <v>44778</v>
       </c>
@@ -834,7 +852,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+    <row r="27" spans="1:6" ht="15.75" thickBot="1">
       <c r="A27" s="3">
         <v>44777</v>
       </c>
@@ -849,7 +867,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="1">
         <v>44776</v>
       </c>
@@ -864,7 +882,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1">
+    <row r="29" spans="1:6" ht="15.75" thickBot="1">
       <c r="A29" s="3">
         <v>44775</v>
       </c>
@@ -879,7 +897,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:6" ht="15.75" thickBot="1">
       <c r="A30" s="1">
         <v>44774</v>
       </c>
@@ -894,7 +912,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
       <c r="A31" s="3">
         <v>44771</v>
       </c>
@@ -909,7 +927,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+    <row r="32" spans="1:6" ht="15.75" thickBot="1">
       <c r="A32" s="1">
         <v>44770</v>
       </c>
@@ -923,8 +941,12 @@
         <f t="shared" si="0"/>
         <v>309</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+      <c r="F32">
+        <f>MAX(D2:D64)</f>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1">
       <c r="A33" s="3">
         <v>44769</v>
       </c>
@@ -939,7 +961,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1">
+    <row r="34" spans="1:6" ht="15.75" thickBot="1">
       <c r="A34" s="1">
         <v>44768</v>
       </c>
@@ -954,7 +976,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+    <row r="35" spans="1:6" ht="15.75" thickBot="1">
       <c r="A35" s="3">
         <v>44767</v>
       </c>
@@ -969,7 +991,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+    <row r="36" spans="1:6" ht="15.75" thickBot="1">
       <c r="A36" s="1">
         <v>44764</v>
       </c>
@@ -983,8 +1005,16 @@
         <f t="shared" si="0"/>
         <v>333</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1">
+      <c r="E36">
+        <f>+D36/D64</f>
+        <v>1.6009615384615385</v>
+      </c>
+      <c r="F36" s="6">
+        <f>+A36-A64</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" thickBot="1">
       <c r="A37" s="3">
         <v>44763</v>
       </c>
@@ -999,7 +1029,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1">
       <c r="A38" s="1">
         <v>44762</v>
       </c>
@@ -1014,7 +1044,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
       <c r="A39" s="3">
         <v>44761</v>
       </c>
@@ -1029,7 +1059,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+    <row r="40" spans="1:6" ht="15.75" thickBot="1">
       <c r="A40" s="1">
         <v>44760</v>
       </c>
@@ -1044,7 +1074,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+    <row r="41" spans="1:6" ht="15.75" thickBot="1">
       <c r="A41" s="3">
         <v>44757</v>
       </c>
@@ -1059,7 +1089,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="A42" s="1">
         <v>44756</v>
       </c>
@@ -1074,7 +1104,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="A43" s="3">
         <v>44755</v>
       </c>
@@ -1089,7 +1119,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="A44" s="1">
         <v>44754</v>
       </c>
@@ -1104,7 +1134,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" s="3">
         <v>44753</v>
       </c>
@@ -1119,7 +1149,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1">
+    <row r="46" spans="1:6" ht="15.75" thickBot="1">
       <c r="A46" s="1">
         <v>44750</v>
       </c>
@@ -1134,7 +1164,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1">
       <c r="A47" s="3">
         <v>44749</v>
       </c>
@@ -1149,7 +1179,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1">
       <c r="A48" s="1">
         <v>44748</v>
       </c>
@@ -1164,7 +1194,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+    <row r="49" spans="1:13" ht="15.75" thickBot="1">
       <c r="A49" s="3">
         <v>44747</v>
       </c>
@@ -1179,7 +1209,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+    <row r="50" spans="1:13" ht="15.75" thickBot="1">
       <c r="A50" s="1">
         <v>44746</v>
       </c>
@@ -1194,7 +1224,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1">
+    <row r="51" spans="1:13" ht="15.75" thickBot="1">
       <c r="A51" s="3">
         <v>44743</v>
       </c>
@@ -1209,7 +1239,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1">
+    <row r="52" spans="1:13" ht="15.75" thickBot="1">
       <c r="A52" s="1">
         <v>44742</v>
       </c>
@@ -1224,7 +1254,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1">
+    <row r="53" spans="1:13" ht="15.75" thickBot="1">
       <c r="A53" s="3">
         <v>44741</v>
       </c>
@@ -1239,7 +1269,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1">
+    <row r="54" spans="1:13" ht="15.75" thickBot="1">
       <c r="A54" s="1">
         <v>44740</v>
       </c>
@@ -1254,7 +1284,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+    <row r="55" spans="1:13" ht="15.75" thickBot="1">
       <c r="A55" s="3">
         <v>44739</v>
       </c>
@@ -1269,7 +1299,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1">
+    <row r="56" spans="1:13" ht="15.75" thickBot="1">
       <c r="A56" s="1">
         <v>44736</v>
       </c>
@@ -1284,7 +1314,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1">
+    <row r="57" spans="1:13" ht="15.75" thickBot="1">
       <c r="A57" s="3">
         <v>44735</v>
       </c>
@@ -1298,8 +1328,18 @@
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+      <c r="K57" s="5">
+        <v>44798</v>
+      </c>
+      <c r="L57" s="5">
+        <v>44723</v>
+      </c>
+      <c r="M57" s="6">
+        <f>+K57-L57</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15.75" thickBot="1">
       <c r="A58" s="1">
         <v>44734</v>
       </c>
@@ -1314,7 +1354,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1">
+    <row r="59" spans="1:13" ht="15.75" thickBot="1">
       <c r="A59" s="3">
         <v>44733</v>
       </c>
@@ -1329,7 +1369,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+    <row r="60" spans="1:13" ht="15.75" thickBot="1">
       <c r="A60" s="1">
         <v>44728</v>
       </c>
@@ -1344,7 +1384,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1">
+    <row r="61" spans="1:13" ht="15.75" thickBot="1">
       <c r="A61" s="3">
         <v>44727</v>
       </c>
@@ -1359,7 +1399,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
+    <row r="62" spans="1:13" ht="15.75" thickBot="1">
       <c r="A62" s="1">
         <v>44726</v>
       </c>
@@ -1374,7 +1414,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1">
       <c r="A63" s="3">
         <v>44725</v>
       </c>
@@ -1389,7 +1429,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
         <v>44722</v>
       </c>
